--- a/Desislava Laskova/5. Занятие 5 - Tests and GIT/5. Tests cases - Online shop.xlsx
+++ b/Desislava Laskova/5. Занятие 5 - Tests and GIT/5. Tests cases - Online shop.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\QA 2018\Занятие 5 - Упражнение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4605D-A7FB-4D5C-84F6-224CC208E23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5876B2D-A34A-4538-9160-1DD313E266E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932" tabRatio="959" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932" tabRatio="959" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Testing the Search function" sheetId="1" r:id="rId1"/>
     <sheet name="2. Testing some categories" sheetId="2" r:id="rId2"/>
-    <sheet name="Test suite for login page" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Testing the discount banner" sheetId="5" r:id="rId3"/>
+    <sheet name="Test suite for login page" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -61,9 +62,6 @@
 Website: http://skillo-bg.com</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>Desislava Laskova</t>
   </si>
   <si>
@@ -166,19 +164,45 @@
     <t>Test "Search" function in Online Shop http://automationpractice.com</t>
   </si>
   <si>
-    <t>Test "Search" function in Online Shop http://automationpractice.com/</t>
+    <t>TC_Online_Shop_003</t>
+  </si>
+  <si>
+    <t>Unsuccessful loading of the discount banner</t>
+  </si>
+  <si>
+    <t>Unsuccessful loading of some categories</t>
+  </si>
+  <si>
+    <t>Test "Search" function in Online Shop</t>
+  </si>
+  <si>
+    <t>The page is loaded. The user is redirected to the Main page. The discount banner for 70% SALE appears.</t>
+  </si>
+  <si>
+    <t>2. Click on the banner</t>
+  </si>
+  <si>
+    <t>The user is redirected to the contact form instead to the information about saled products.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,86 +454,91 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,6 +644,55 @@
         <a:xfrm>
           <a:off x="4827270" y="28575"/>
           <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470074A2-34F2-4BA2-B3C5-302F947C8A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,8 +1028,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,41 +1041,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>24</v>
+      <c r="B4" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>47</v>
+      <c r="B5" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>25</v>
+      <c r="B6" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1010,22 +1088,22 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,14 +1119,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1060,26 +1138,26 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1181,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,49 +1193,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>34</v>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>45</v>
+      <c r="B5" s="34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>23</v>
+      <c r="B6" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>40</v>
+      <c r="B7" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1167,15 +1245,15 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1191,14 +1269,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1209,35 +1287,35 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>29</v>
+      <c r="A15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1256,12 +1334,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A3243A-B29C-42E6-B00D-6435A75CDBC5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{9BDC81C1-6C5F-45D5-846D-3494B807392A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ABBF01-C0F6-4CF2-9742-8FAE37B32189}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,10 +1488,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1297,12 +1514,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="21">
         <v>3420420559</v>
@@ -1310,13 +1527,13 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="15"/>
     </row>
@@ -1325,28 +1542,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
@@ -1354,27 +1571,33 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="B16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Desislava Laskova/5. Занятие 5 - Tests and GIT/5. Tests cases - Online shop.xlsx
+++ b/Desislava Laskova/5. Занятие 5 - Tests and GIT/5. Tests cases - Online shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\QA 2018\Занятие 5 - Упражнение\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\gittest\Desislava Laskova\5. Занятие 5 - Tests and GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5876B2D-A34A-4538-9160-1DD313E266E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D73960-A822-469E-8313-D7EDC198BA2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932" tabRatio="959" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932" tabRatio="959" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Testing the Search function" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -98,18 +98,6 @@
     <t>TC_Online_Shop_001</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>User enters "dresses"</t>
-  </si>
-  <si>
-    <t>Dresses</t>
-  </si>
-  <si>
-    <t>http://automationpractice.com/index.php?controller=search&amp;orderby=position&amp;orderway=desc&amp;search_query=dresses&amp;submit_search=</t>
-  </si>
-  <si>
     <t>The page is loaded. The user is redirected to the Main page.</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>TC_Online_Shop_002</t>
   </si>
   <si>
-    <t>http://automationpractice.com/index.php</t>
-  </si>
-  <si>
     <t>1. Open site http://automationpractice.com/index.php</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>Unsuccessful loading of some categories</t>
   </si>
   <si>
-    <t>Test "Search" function in Online Shop</t>
-  </si>
-  <si>
     <t>The page is loaded. The user is redirected to the Main page. The discount banner for 70% SALE appears.</t>
   </si>
   <si>
@@ -183,18 +165,29 @@
   </si>
   <si>
     <t>The user is redirected to the contact form instead to the information about saled products.</t>
+  </si>
+  <si>
+    <t>"Search" function in Online Shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,91 +447,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,7 +1023,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,18 +1035,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1066,16 +1060,16 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>49</v>
+      <c r="B5" s="36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>24</v>
+      <c r="B6" s="36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,23 +1082,17 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="33"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1123,10 +1111,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1141,23 +1129,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1166,12 +1154,9 @@
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{56BDF0F4-21BA-47EF-9DFA-B50AF5B7A400}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1181,7 +1166,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,33 +1178,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>48</v>
+      <c r="B5" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,15 +1230,13 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,10 +1256,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1288,34 +1271,34 @@
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1324,12 +1307,9 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{18A6D5BC-C5CF-4BC0-BE0C-4A6C0C9DE2FD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1337,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A3243A-B29C-42E6-B00D-6435A75CDBC5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,33 +1330,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>46</v>
+      <c r="B4" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>47</v>
+      <c r="B5" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1400,15 +1380,13 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,10 +1406,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1443,18 +1421,18 @@
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1463,12 +1441,9 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{9BDC81C1-6C5F-45D5-846D-3494B807392A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1477,8 +1452,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,10 +1463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1550,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1560,10 +1535,10 @@
       <c r="B9" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
@@ -1582,22 +1557,24 @@
         <v>23</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="25"/>
+      <c r="A16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
